--- a/AMAT.xlsx
+++ b/AMAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3261DDFA-6A0B-44D4-985B-8610EC5710F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1191E4-ED79-4968-ABC4-47B6A76F2C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{06EFFD27-1757-45B6-9E58-706779EEED5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{06EFFD27-1757-45B6-9E58-706779EEED5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +184,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -205,6 +203,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,20 +238,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -578,33 +591,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A6AFE-C186-46C7-8157-10E5E2E82F5E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>179.53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3">
@@ -614,8 +626,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="3">
@@ -623,11 +635,11 @@
         <v>148005.26591864001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3">
@@ -638,11 +650,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="3">
@@ -653,8 +665,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
@@ -671,26 +683,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0960A73-A441-4FD3-8A02-F7BA2FA0CA72}">
   <dimension ref="A1:AJ379"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28:J30"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -716,8 +729,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="3"/>
@@ -759,8 +772,8 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="3"/>
@@ -802,8 +815,8 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="3"/>
@@ -845,8 +858,8 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="3"/>
@@ -888,7 +901,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -931,8 +944,8 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3"/>
@@ -974,8 +987,8 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3">
@@ -1037,8 +1050,8 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3"/>
@@ -1080,8 +1093,8 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3"/>
@@ -1123,8 +1136,8 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3"/>
@@ -1166,8 +1179,8 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3">
@@ -1229,8 +1242,8 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3"/>
@@ -1272,8 +1285,8 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3"/>
@@ -1315,8 +1328,8 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="3">
@@ -1378,8 +1391,8 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3"/>
@@ -1421,8 +1434,8 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="3">
@@ -1484,7 +1497,7 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1520,39 +1533,39 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="e">
+      <c r="C20" s="7" t="e">
         <f t="shared" ref="C20:H20" si="8">+C18/C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="2" t="e">
+      <c r="D20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="7">
         <f t="shared" si="8"/>
         <v>1.8615751789976134</v>
       </c>
-      <c r="F20" s="2" t="e">
+      <c r="F20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="2" t="e">
+      <c r="G20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="2" t="e">
+      <c r="H20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="7">
         <f>+I18/I21</f>
         <v>2.0641646489104115</v>
       </c>
-      <c r="J20" s="2" t="e">
+      <c r="J20" s="7" t="e">
         <f t="shared" ref="J20" si="9">+J18/J21</f>
         <v>#DIV/0!</v>
       </c>
@@ -1583,8 +1596,8 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3"/>
@@ -1626,7 +1639,7 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1662,27 +1675,27 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="8" t="e">
         <f t="shared" ref="G23:H27" si="10">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="7" t="e">
+      <c r="H23" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <f>+I3/E3-1</f>
         <v>5.3036783575705737E-2</v>
       </c>
-      <c r="J23" s="7" t="e">
+      <c r="J23" s="8" t="e">
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -1713,27 +1726,27 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="7" t="e">
+      <c r="G24" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="7" t="e">
+      <c r="H24" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <f t="shared" ref="I24:J27" si="11">+I4/E4-1</f>
         <v>7.9234972677595605E-2</v>
       </c>
-      <c r="J24" s="7" t="e">
+      <c r="J24" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1764,27 +1777,27 @@
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <f t="shared" si="11"/>
         <v>6.8085106382978822E-2</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1815,27 +1828,27 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f t="shared" si="11"/>
         <v>-0.54</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1866,27 +1879,27 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <f t="shared" si="11"/>
         <v>5.4941634241245207E-2</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1917,39 +1930,39 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="7" t="e">
-        <f t="shared" ref="C28:I28" si="12">+C9/C7</f>
+      <c r="C28" s="8" t="e">
+        <f t="shared" ref="C28:H28" si="12">+C9/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="7" t="e">
+      <c r="D28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <f t="shared" si="12"/>
         <v>0.46319066147859922</v>
       </c>
-      <c r="F28" s="7" t="e">
+      <c r="F28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <f>+I9/I7</f>
         <v>0.47285334907052229</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f>+J9/J7</f>
         <v>#DIV/0!</v>
       </c>
@@ -1980,39 +1993,39 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:I29" si="13">+C13/C7</f>
+      <c r="C29" s="8" t="e">
+        <f t="shared" ref="C29:H29" si="13">+C13/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="7" t="e">
+      <c r="D29" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <f t="shared" si="13"/>
         <v>0.28046692607003892</v>
       </c>
-      <c r="F29" s="7" t="e">
+      <c r="F29" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="7" t="e">
+      <c r="G29" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f>+I13/I7</f>
         <v>0.28651519622307464</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f>+J13/J7</f>
         <v>#DIV/0!</v>
       </c>
@@ -2043,39 +2056,39 @@
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:I30" si="14">+C17/C16</f>
+      <c r="C30" s="8" t="e">
+        <f t="shared" ref="C30:H30" si="14">+C17/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <f t="shared" si="14"/>
         <v>0.13621262458471761</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f>+I17/I16</f>
         <v>0.13010204081632654</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f>+J17/J16</f>
         <v>#DIV/0!</v>
       </c>
@@ -2106,7 +2119,7 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2142,7 +2155,7 @@
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2178,7 +2191,7 @@
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2214,7 +2227,7 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
     </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2250,7 +2263,7 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2286,7 +2299,7 @@
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2322,7 +2335,7 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
     </row>
-    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2358,7 +2371,7 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
     </row>
-    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2394,7 +2407,7 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2430,7 +2443,7 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2466,7 +2479,7 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2502,7 +2515,7 @@
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2538,7 +2551,7 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2574,7 +2587,7 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2610,7 +2623,7 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2646,7 +2659,7 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2682,7 +2695,7 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2718,7 +2731,7 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2754,7 +2767,7 @@
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
     </row>
-    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2790,7 +2803,7 @@
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
     </row>
-    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2826,7 +2839,7 @@
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
     </row>
-    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2862,7 +2875,7 @@
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
     </row>
-    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2898,7 +2911,7 @@
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
     </row>
-    <row r="53" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2934,7 +2947,7 @@
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
     </row>
-    <row r="54" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2970,7 +2983,7 @@
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
     </row>
-    <row r="55" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3006,7 +3019,7 @@
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
     </row>
-    <row r="56" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3042,7 +3055,7 @@
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
     </row>
-    <row r="57" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3078,7 +3091,7 @@
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
     </row>
-    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3114,7 +3127,7 @@
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
     </row>
-    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3150,7 +3163,7 @@
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
     </row>
-    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3186,7 +3199,7 @@
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
     </row>
-    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3222,7 +3235,7 @@
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
     </row>
-    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3258,7 +3271,7 @@
       <c r="AI62" s="3"/>
       <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3294,7 +3307,7 @@
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3330,7 +3343,7 @@
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
     </row>
-    <row r="65" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3366,7 +3379,7 @@
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
     </row>
-    <row r="66" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3402,7 +3415,7 @@
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
     </row>
-    <row r="67" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3438,7 +3451,7 @@
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
     </row>
-    <row r="68" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3474,7 +3487,7 @@
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
     </row>
-    <row r="69" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3510,7 +3523,7 @@
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
     </row>
-    <row r="70" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3546,7 +3559,7 @@
       <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
     </row>
-    <row r="71" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3582,7 +3595,7 @@
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
     </row>
-    <row r="72" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3618,7 +3631,7 @@
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
     </row>
-    <row r="73" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3654,7 +3667,7 @@
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3"/>
     </row>
-    <row r="74" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3690,7 +3703,7 @@
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
     </row>
-    <row r="75" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3726,7 +3739,7 @@
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
     </row>
-    <row r="76" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3762,7 +3775,7 @@
       <c r="AI76" s="3"/>
       <c r="AJ76" s="3"/>
     </row>
-    <row r="77" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3798,7 +3811,7 @@
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
     </row>
-    <row r="78" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3834,7 +3847,7 @@
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
     </row>
-    <row r="79" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3870,7 +3883,7 @@
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
     </row>
-    <row r="80" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3906,7 +3919,7 @@
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
     </row>
-    <row r="81" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3942,7 +3955,7 @@
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3"/>
     </row>
-    <row r="82" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3978,7 +3991,7 @@
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
     </row>
-    <row r="83" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4014,7 +4027,7 @@
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
     </row>
-    <row r="84" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4050,7 +4063,7 @@
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
     </row>
-    <row r="85" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4086,7 +4099,7 @@
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
     </row>
-    <row r="86" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4122,7 +4135,7 @@
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
     </row>
-    <row r="87" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4158,7 +4171,7 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
     </row>
-    <row r="88" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4194,7 +4207,7 @@
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
     </row>
-    <row r="89" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4230,7 +4243,7 @@
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
     </row>
-    <row r="90" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4266,7 +4279,7 @@
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
     </row>
-    <row r="91" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4302,7 +4315,7 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4338,7 +4351,7 @@
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
     </row>
-    <row r="93" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4374,7 +4387,7 @@
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4410,7 +4423,7 @@
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
     </row>
-    <row r="95" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4446,7 +4459,7 @@
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4482,7 +4495,7 @@
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4518,7 +4531,7 @@
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
     </row>
-    <row r="98" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4554,7 +4567,7 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
     </row>
-    <row r="99" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4590,7 +4603,7 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
     </row>
-    <row r="100" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4626,7 +4639,7 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4662,7 +4675,7 @@
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
     </row>
-    <row r="102" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4698,7 +4711,7 @@
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
     </row>
-    <row r="103" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4734,7 +4747,7 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
     </row>
-    <row r="104" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4770,7 +4783,7 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
     </row>
-    <row r="105" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4806,7 +4819,7 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
     </row>
-    <row r="106" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4842,7 +4855,7 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
     </row>
-    <row r="107" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4878,7 +4891,7 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
     </row>
-    <row r="108" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4914,7 +4927,7 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
     </row>
-    <row r="109" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4950,7 +4963,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4986,7 +4999,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5022,7 +5035,7 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
     </row>
-    <row r="112" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5058,7 +5071,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5094,7 +5107,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5130,7 +5143,7 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
     </row>
-    <row r="115" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5166,7 +5179,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5202,7 +5215,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5238,7 +5251,7 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
     </row>
-    <row r="118" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5274,7 +5287,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
     </row>
-    <row r="119" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5310,7 +5323,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5346,7 +5359,7 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5382,7 +5395,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5418,7 +5431,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5454,7 +5467,7 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5490,7 +5503,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5526,7 +5539,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5562,7 +5575,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5598,7 +5611,7 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5634,7 +5647,7 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5670,7 +5683,7 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="3"/>
     </row>
-    <row r="130" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5706,7 +5719,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5742,7 +5755,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5778,7 +5791,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5814,7 +5827,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5850,7 +5863,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5886,7 +5899,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5922,7 +5935,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5958,7 +5971,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5994,7 +6007,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6030,7 +6043,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6066,7 +6079,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6102,7 +6115,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6138,7 +6151,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6174,7 +6187,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6210,7 +6223,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6246,7 +6259,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6282,7 +6295,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6318,7 +6331,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6354,7 +6367,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6390,7 +6403,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6426,7 +6439,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6462,7 +6475,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
     </row>
-    <row r="152" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6498,7 +6511,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6534,7 +6547,7 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="3"/>
     </row>
-    <row r="154" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6570,7 +6583,7 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
     </row>
-    <row r="155" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6606,7 +6619,7 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="3"/>
     </row>
-    <row r="156" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6642,7 +6655,7 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="3"/>
     </row>
-    <row r="157" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6678,7 +6691,7 @@
       <c r="AI157" s="3"/>
       <c r="AJ157" s="3"/>
     </row>
-    <row r="158" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6714,7 +6727,7 @@
       <c r="AI158" s="3"/>
       <c r="AJ158" s="3"/>
     </row>
-    <row r="159" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6750,7 +6763,7 @@
       <c r="AI159" s="3"/>
       <c r="AJ159" s="3"/>
     </row>
-    <row r="160" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6786,7 +6799,7 @@
       <c r="AI160" s="3"/>
       <c r="AJ160" s="3"/>
     </row>
-    <row r="161" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6822,7 +6835,7 @@
       <c r="AI161" s="3"/>
       <c r="AJ161" s="3"/>
     </row>
-    <row r="162" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6858,7 +6871,7 @@
       <c r="AI162" s="3"/>
       <c r="AJ162" s="3"/>
     </row>
-    <row r="163" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6894,7 +6907,7 @@
       <c r="AI163" s="3"/>
       <c r="AJ163" s="3"/>
     </row>
-    <row r="164" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6930,7 +6943,7 @@
       <c r="AI164" s="3"/>
       <c r="AJ164" s="3"/>
     </row>
-    <row r="165" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6966,7 +6979,7 @@
       <c r="AI165" s="3"/>
       <c r="AJ165" s="3"/>
     </row>
-    <row r="166" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7002,7 +7015,7 @@
       <c r="AI166" s="3"/>
       <c r="AJ166" s="3"/>
     </row>
-    <row r="167" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7038,7 +7051,7 @@
       <c r="AI167" s="3"/>
       <c r="AJ167" s="3"/>
     </row>
-    <row r="168" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7074,7 +7087,7 @@
       <c r="AI168" s="3"/>
       <c r="AJ168" s="3"/>
     </row>
-    <row r="169" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7110,7 +7123,7 @@
       <c r="AI169" s="3"/>
       <c r="AJ169" s="3"/>
     </row>
-    <row r="170" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7146,7 +7159,7 @@
       <c r="AI170" s="3"/>
       <c r="AJ170" s="3"/>
     </row>
-    <row r="171" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7182,7 +7195,7 @@
       <c r="AI171" s="3"/>
       <c r="AJ171" s="3"/>
     </row>
-    <row r="172" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7218,7 +7231,7 @@
       <c r="AI172" s="3"/>
       <c r="AJ172" s="3"/>
     </row>
-    <row r="173" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7254,7 +7267,7 @@
       <c r="AI173" s="3"/>
       <c r="AJ173" s="3"/>
     </row>
-    <row r="174" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7290,7 +7303,7 @@
       <c r="AI174" s="3"/>
       <c r="AJ174" s="3"/>
     </row>
-    <row r="175" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7326,7 +7339,7 @@
       <c r="AI175" s="3"/>
       <c r="AJ175" s="3"/>
     </row>
-    <row r="176" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7362,7 +7375,7 @@
       <c r="AI176" s="3"/>
       <c r="AJ176" s="3"/>
     </row>
-    <row r="177" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7398,7 +7411,7 @@
       <c r="AI177" s="3"/>
       <c r="AJ177" s="3"/>
     </row>
-    <row r="178" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7434,7 +7447,7 @@
       <c r="AI178" s="3"/>
       <c r="AJ178" s="3"/>
     </row>
-    <row r="179" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7470,7 +7483,7 @@
       <c r="AI179" s="3"/>
       <c r="AJ179" s="3"/>
     </row>
-    <row r="180" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7506,7 +7519,7 @@
       <c r="AI180" s="3"/>
       <c r="AJ180" s="3"/>
     </row>
-    <row r="181" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7542,7 +7555,7 @@
       <c r="AI181" s="3"/>
       <c r="AJ181" s="3"/>
     </row>
-    <row r="182" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7578,7 +7591,7 @@
       <c r="AI182" s="3"/>
       <c r="AJ182" s="3"/>
     </row>
-    <row r="183" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7614,7 +7627,7 @@
       <c r="AI183" s="3"/>
       <c r="AJ183" s="3"/>
     </row>
-    <row r="184" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7650,7 +7663,7 @@
       <c r="AI184" s="3"/>
       <c r="AJ184" s="3"/>
     </row>
-    <row r="185" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7686,7 +7699,7 @@
       <c r="AI185" s="3"/>
       <c r="AJ185" s="3"/>
     </row>
-    <row r="186" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7722,7 +7735,7 @@
       <c r="AI186" s="3"/>
       <c r="AJ186" s="3"/>
     </row>
-    <row r="187" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7758,7 +7771,7 @@
       <c r="AI187" s="3"/>
       <c r="AJ187" s="3"/>
     </row>
-    <row r="188" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7794,7 +7807,7 @@
       <c r="AI188" s="3"/>
       <c r="AJ188" s="3"/>
     </row>
-    <row r="189" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7830,7 +7843,7 @@
       <c r="AI189" s="3"/>
       <c r="AJ189" s="3"/>
     </row>
-    <row r="190" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7866,7 +7879,7 @@
       <c r="AI190" s="3"/>
       <c r="AJ190" s="3"/>
     </row>
-    <row r="191" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7902,7 +7915,7 @@
       <c r="AI191" s="3"/>
       <c r="AJ191" s="3"/>
     </row>
-    <row r="192" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7938,7 +7951,7 @@
       <c r="AI192" s="3"/>
       <c r="AJ192" s="3"/>
     </row>
-    <row r="193" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7974,7 +7987,7 @@
       <c r="AI193" s="3"/>
       <c r="AJ193" s="3"/>
     </row>
-    <row r="194" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8010,7 +8023,7 @@
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
     </row>
-    <row r="195" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8046,7 +8059,7 @@
       <c r="AI195" s="3"/>
       <c r="AJ195" s="3"/>
     </row>
-    <row r="196" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8082,7 +8095,7 @@
       <c r="AI196" s="3"/>
       <c r="AJ196" s="3"/>
     </row>
-    <row r="197" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8118,7 +8131,7 @@
       <c r="AI197" s="3"/>
       <c r="AJ197" s="3"/>
     </row>
-    <row r="198" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8154,7 +8167,7 @@
       <c r="AI198" s="3"/>
       <c r="AJ198" s="3"/>
     </row>
-    <row r="199" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8190,7 +8203,7 @@
       <c r="AI199" s="3"/>
       <c r="AJ199" s="3"/>
     </row>
-    <row r="200" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8226,7 +8239,7 @@
       <c r="AI200" s="3"/>
       <c r="AJ200" s="3"/>
     </row>
-    <row r="201" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8262,7 +8275,7 @@
       <c r="AI201" s="3"/>
       <c r="AJ201" s="3"/>
     </row>
-    <row r="202" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8298,7 +8311,7 @@
       <c r="AI202" s="3"/>
       <c r="AJ202" s="3"/>
     </row>
-    <row r="203" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8334,7 +8347,7 @@
       <c r="AI203" s="3"/>
       <c r="AJ203" s="3"/>
     </row>
-    <row r="204" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8370,7 +8383,7 @@
       <c r="AI204" s="3"/>
       <c r="AJ204" s="3"/>
     </row>
-    <row r="205" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8406,7 +8419,7 @@
       <c r="AI205" s="3"/>
       <c r="AJ205" s="3"/>
     </row>
-    <row r="206" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8442,7 +8455,7 @@
       <c r="AI206" s="3"/>
       <c r="AJ206" s="3"/>
     </row>
-    <row r="207" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8478,7 +8491,7 @@
       <c r="AI207" s="3"/>
       <c r="AJ207" s="3"/>
     </row>
-    <row r="208" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8514,7 +8527,7 @@
       <c r="AI208" s="3"/>
       <c r="AJ208" s="3"/>
     </row>
-    <row r="209" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8550,7 +8563,7 @@
       <c r="AI209" s="3"/>
       <c r="AJ209" s="3"/>
     </row>
-    <row r="210" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8586,7 +8599,7 @@
       <c r="AI210" s="3"/>
       <c r="AJ210" s="3"/>
     </row>
-    <row r="211" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -8622,7 +8635,7 @@
       <c r="AI211" s="3"/>
       <c r="AJ211" s="3"/>
     </row>
-    <row r="212" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -8658,7 +8671,7 @@
       <c r="AI212" s="3"/>
       <c r="AJ212" s="3"/>
     </row>
-    <row r="213" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -8694,7 +8707,7 @@
       <c r="AI213" s="3"/>
       <c r="AJ213" s="3"/>
     </row>
-    <row r="214" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -8730,7 +8743,7 @@
       <c r="AI214" s="3"/>
       <c r="AJ214" s="3"/>
     </row>
-    <row r="215" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -8766,7 +8779,7 @@
       <c r="AI215" s="3"/>
       <c r="AJ215" s="3"/>
     </row>
-    <row r="216" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -8802,7 +8815,7 @@
       <c r="AI216" s="3"/>
       <c r="AJ216" s="3"/>
     </row>
-    <row r="217" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -8838,7 +8851,7 @@
       <c r="AI217" s="3"/>
       <c r="AJ217" s="3"/>
     </row>
-    <row r="218" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -8874,7 +8887,7 @@
       <c r="AI218" s="3"/>
       <c r="AJ218" s="3"/>
     </row>
-    <row r="219" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -8910,7 +8923,7 @@
       <c r="AI219" s="3"/>
       <c r="AJ219" s="3"/>
     </row>
-    <row r="220" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8946,7 +8959,7 @@
       <c r="AI220" s="3"/>
       <c r="AJ220" s="3"/>
     </row>
-    <row r="221" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8982,7 +8995,7 @@
       <c r="AI221" s="3"/>
       <c r="AJ221" s="3"/>
     </row>
-    <row r="222" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -9018,7 +9031,7 @@
       <c r="AI222" s="3"/>
       <c r="AJ222" s="3"/>
     </row>
-    <row r="223" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9054,7 +9067,7 @@
       <c r="AI223" s="3"/>
       <c r="AJ223" s="3"/>
     </row>
-    <row r="224" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9090,7 +9103,7 @@
       <c r="AI224" s="3"/>
       <c r="AJ224" s="3"/>
     </row>
-    <row r="225" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9126,7 +9139,7 @@
       <c r="AI225" s="3"/>
       <c r="AJ225" s="3"/>
     </row>
-    <row r="226" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9162,7 +9175,7 @@
       <c r="AI226" s="3"/>
       <c r="AJ226" s="3"/>
     </row>
-    <row r="227" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9198,7 +9211,7 @@
       <c r="AI227" s="3"/>
       <c r="AJ227" s="3"/>
     </row>
-    <row r="228" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9234,7 +9247,7 @@
       <c r="AI228" s="3"/>
       <c r="AJ228" s="3"/>
     </row>
-    <row r="229" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9270,7 +9283,7 @@
       <c r="AI229" s="3"/>
       <c r="AJ229" s="3"/>
     </row>
-    <row r="230" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9306,7 +9319,7 @@
       <c r="AI230" s="3"/>
       <c r="AJ230" s="3"/>
     </row>
-    <row r="231" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9342,7 +9355,7 @@
       <c r="AI231" s="3"/>
       <c r="AJ231" s="3"/>
     </row>
-    <row r="232" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9378,7 +9391,7 @@
       <c r="AI232" s="3"/>
       <c r="AJ232" s="3"/>
     </row>
-    <row r="233" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9414,7 +9427,7 @@
       <c r="AI233" s="3"/>
       <c r="AJ233" s="3"/>
     </row>
-    <row r="234" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9450,7 +9463,7 @@
       <c r="AI234" s="3"/>
       <c r="AJ234" s="3"/>
     </row>
-    <row r="235" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -9486,7 +9499,7 @@
       <c r="AI235" s="3"/>
       <c r="AJ235" s="3"/>
     </row>
-    <row r="236" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9522,7 +9535,7 @@
       <c r="AI236" s="3"/>
       <c r="AJ236" s="3"/>
     </row>
-    <row r="237" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -9558,7 +9571,7 @@
       <c r="AI237" s="3"/>
       <c r="AJ237" s="3"/>
     </row>
-    <row r="238" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9594,7 +9607,7 @@
       <c r="AI238" s="3"/>
       <c r="AJ238" s="3"/>
     </row>
-    <row r="239" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9630,7 +9643,7 @@
       <c r="AI239" s="3"/>
       <c r="AJ239" s="3"/>
     </row>
-    <row r="240" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -9666,7 +9679,7 @@
       <c r="AI240" s="3"/>
       <c r="AJ240" s="3"/>
     </row>
-    <row r="241" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9702,7 +9715,7 @@
       <c r="AI241" s="3"/>
       <c r="AJ241" s="3"/>
     </row>
-    <row r="242" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -9738,7 +9751,7 @@
       <c r="AI242" s="3"/>
       <c r="AJ242" s="3"/>
     </row>
-    <row r="243" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -9774,7 +9787,7 @@
       <c r="AI243" s="3"/>
       <c r="AJ243" s="3"/>
     </row>
-    <row r="244" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -9810,7 +9823,7 @@
       <c r="AI244" s="3"/>
       <c r="AJ244" s="3"/>
     </row>
-    <row r="245" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -9846,7 +9859,7 @@
       <c r="AI245" s="3"/>
       <c r="AJ245" s="3"/>
     </row>
-    <row r="246" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -9882,7 +9895,7 @@
       <c r="AI246" s="3"/>
       <c r="AJ246" s="3"/>
     </row>
-    <row r="247" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -9918,7 +9931,7 @@
       <c r="AI247" s="3"/>
       <c r="AJ247" s="3"/>
     </row>
-    <row r="248" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -9954,7 +9967,7 @@
       <c r="AI248" s="3"/>
       <c r="AJ248" s="3"/>
     </row>
-    <row r="249" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -9990,7 +10003,7 @@
       <c r="AI249" s="3"/>
       <c r="AJ249" s="3"/>
     </row>
-    <row r="250" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -10026,7 +10039,7 @@
       <c r="AI250" s="3"/>
       <c r="AJ250" s="3"/>
     </row>
-    <row r="251" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10062,7 +10075,7 @@
       <c r="AI251" s="3"/>
       <c r="AJ251" s="3"/>
     </row>
-    <row r="252" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10098,7 +10111,7 @@
       <c r="AI252" s="3"/>
       <c r="AJ252" s="3"/>
     </row>
-    <row r="253" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10134,7 +10147,7 @@
       <c r="AI253" s="3"/>
       <c r="AJ253" s="3"/>
     </row>
-    <row r="254" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10170,7 +10183,7 @@
       <c r="AI254" s="3"/>
       <c r="AJ254" s="3"/>
     </row>
-    <row r="255" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -10206,7 +10219,7 @@
       <c r="AI255" s="3"/>
       <c r="AJ255" s="3"/>
     </row>
-    <row r="256" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10242,7 +10255,7 @@
       <c r="AI256" s="3"/>
       <c r="AJ256" s="3"/>
     </row>
-    <row r="257" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10278,7 +10291,7 @@
       <c r="AI257" s="3"/>
       <c r="AJ257" s="3"/>
     </row>
-    <row r="258" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10314,7 +10327,7 @@
       <c r="AI258" s="3"/>
       <c r="AJ258" s="3"/>
     </row>
-    <row r="259" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10350,7 +10363,7 @@
       <c r="AI259" s="3"/>
       <c r="AJ259" s="3"/>
     </row>
-    <row r="260" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -10386,7 +10399,7 @@
       <c r="AI260" s="3"/>
       <c r="AJ260" s="3"/>
     </row>
-    <row r="261" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -10422,7 +10435,7 @@
       <c r="AI261" s="3"/>
       <c r="AJ261" s="3"/>
     </row>
-    <row r="262" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -10458,7 +10471,7 @@
       <c r="AI262" s="3"/>
       <c r="AJ262" s="3"/>
     </row>
-    <row r="263" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10494,7 +10507,7 @@
       <c r="AI263" s="3"/>
       <c r="AJ263" s="3"/>
     </row>
-    <row r="264" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10530,7 +10543,7 @@
       <c r="AI264" s="3"/>
       <c r="AJ264" s="3"/>
     </row>
-    <row r="265" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10566,7 +10579,7 @@
       <c r="AI265" s="3"/>
       <c r="AJ265" s="3"/>
     </row>
-    <row r="266" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -10602,7 +10615,7 @@
       <c r="AI266" s="3"/>
       <c r="AJ266" s="3"/>
     </row>
-    <row r="267" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10638,7 +10651,7 @@
       <c r="AI267" s="3"/>
       <c r="AJ267" s="3"/>
     </row>
-    <row r="268" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10674,7 +10687,7 @@
       <c r="AI268" s="3"/>
       <c r="AJ268" s="3"/>
     </row>
-    <row r="269" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10710,7 +10723,7 @@
       <c r="AI269" s="3"/>
       <c r="AJ269" s="3"/>
     </row>
-    <row r="270" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -10746,7 +10759,7 @@
       <c r="AI270" s="3"/>
       <c r="AJ270" s="3"/>
     </row>
-    <row r="271" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10782,7 +10795,7 @@
       <c r="AI271" s="3"/>
       <c r="AJ271" s="3"/>
     </row>
-    <row r="272" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10818,7 +10831,7 @@
       <c r="AI272" s="3"/>
       <c r="AJ272" s="3"/>
     </row>
-    <row r="273" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10854,7 +10867,7 @@
       <c r="AI273" s="3"/>
       <c r="AJ273" s="3"/>
     </row>
-    <row r="274" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10890,7 +10903,7 @@
       <c r="AI274" s="3"/>
       <c r="AJ274" s="3"/>
     </row>
-    <row r="275" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -10926,7 +10939,7 @@
       <c r="AI275" s="3"/>
       <c r="AJ275" s="3"/>
     </row>
-    <row r="276" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -10962,7 +10975,7 @@
       <c r="AI276" s="3"/>
       <c r="AJ276" s="3"/>
     </row>
-    <row r="277" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10998,7 +11011,7 @@
       <c r="AI277" s="3"/>
       <c r="AJ277" s="3"/>
     </row>
-    <row r="278" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -11034,7 +11047,7 @@
       <c r="AI278" s="3"/>
       <c r="AJ278" s="3"/>
     </row>
-    <row r="279" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -11070,7 +11083,7 @@
       <c r="AI279" s="3"/>
       <c r="AJ279" s="3"/>
     </row>
-    <row r="280" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -11106,7 +11119,7 @@
       <c r="AI280" s="3"/>
       <c r="AJ280" s="3"/>
     </row>
-    <row r="281" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -11142,7 +11155,7 @@
       <c r="AI281" s="3"/>
       <c r="AJ281" s="3"/>
     </row>
-    <row r="282" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -11178,7 +11191,7 @@
       <c r="AI282" s="3"/>
       <c r="AJ282" s="3"/>
     </row>
-    <row r="283" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -11214,7 +11227,7 @@
       <c r="AI283" s="3"/>
       <c r="AJ283" s="3"/>
     </row>
-    <row r="284" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -11250,7 +11263,7 @@
       <c r="AI284" s="3"/>
       <c r="AJ284" s="3"/>
     </row>
-    <row r="285" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11286,7 +11299,7 @@
       <c r="AI285" s="3"/>
       <c r="AJ285" s="3"/>
     </row>
-    <row r="286" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11322,7 +11335,7 @@
       <c r="AI286" s="3"/>
       <c r="AJ286" s="3"/>
     </row>
-    <row r="287" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -11358,7 +11371,7 @@
       <c r="AI287" s="3"/>
       <c r="AJ287" s="3"/>
     </row>
-    <row r="288" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -11394,7 +11407,7 @@
       <c r="AI288" s="3"/>
       <c r="AJ288" s="3"/>
     </row>
-    <row r="289" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11430,7 +11443,7 @@
       <c r="AI289" s="3"/>
       <c r="AJ289" s="3"/>
     </row>
-    <row r="290" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11466,7 +11479,7 @@
       <c r="AI290" s="3"/>
       <c r="AJ290" s="3"/>
     </row>
-    <row r="291" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11502,7 +11515,7 @@
       <c r="AI291" s="3"/>
       <c r="AJ291" s="3"/>
     </row>
-    <row r="292" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -11538,7 +11551,7 @@
       <c r="AI292" s="3"/>
       <c r="AJ292" s="3"/>
     </row>
-    <row r="293" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -11574,7 +11587,7 @@
       <c r="AI293" s="3"/>
       <c r="AJ293" s="3"/>
     </row>
-    <row r="294" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -11610,7 +11623,7 @@
       <c r="AI294" s="3"/>
       <c r="AJ294" s="3"/>
     </row>
-    <row r="295" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -11646,7 +11659,7 @@
       <c r="AI295" s="3"/>
       <c r="AJ295" s="3"/>
     </row>
-    <row r="296" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -11682,7 +11695,7 @@
       <c r="AI296" s="3"/>
       <c r="AJ296" s="3"/>
     </row>
-    <row r="297" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -11718,7 +11731,7 @@
       <c r="AI297" s="3"/>
       <c r="AJ297" s="3"/>
     </row>
-    <row r="298" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11754,7 +11767,7 @@
       <c r="AI298" s="3"/>
       <c r="AJ298" s="3"/>
     </row>
-    <row r="299" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -11790,7 +11803,7 @@
       <c r="AI299" s="3"/>
       <c r="AJ299" s="3"/>
     </row>
-    <row r="300" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -11826,7 +11839,7 @@
       <c r="AI300" s="3"/>
       <c r="AJ300" s="3"/>
     </row>
-    <row r="301" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -11862,7 +11875,7 @@
       <c r="AI301" s="3"/>
       <c r="AJ301" s="3"/>
     </row>
-    <row r="302" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -11898,7 +11911,7 @@
       <c r="AI302" s="3"/>
       <c r="AJ302" s="3"/>
     </row>
-    <row r="303" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -11934,7 +11947,7 @@
       <c r="AI303" s="3"/>
       <c r="AJ303" s="3"/>
     </row>
-    <row r="304" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -11970,7 +11983,7 @@
       <c r="AI304" s="3"/>
       <c r="AJ304" s="3"/>
     </row>
-    <row r="305" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -12006,7 +12019,7 @@
       <c r="AI305" s="3"/>
       <c r="AJ305" s="3"/>
     </row>
-    <row r="306" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -12042,7 +12055,7 @@
       <c r="AI306" s="3"/>
       <c r="AJ306" s="3"/>
     </row>
-    <row r="307" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -12078,7 +12091,7 @@
       <c r="AI307" s="3"/>
       <c r="AJ307" s="3"/>
     </row>
-    <row r="308" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -12114,7 +12127,7 @@
       <c r="AI308" s="3"/>
       <c r="AJ308" s="3"/>
     </row>
-    <row r="309" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -12150,7 +12163,7 @@
       <c r="AI309" s="3"/>
       <c r="AJ309" s="3"/>
     </row>
-    <row r="310" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -12186,7 +12199,7 @@
       <c r="AI310" s="3"/>
       <c r="AJ310" s="3"/>
     </row>
-    <row r="311" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -12222,7 +12235,7 @@
       <c r="AI311" s="3"/>
       <c r="AJ311" s="3"/>
     </row>
-    <row r="312" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -12258,7 +12271,7 @@
       <c r="AI312" s="3"/>
       <c r="AJ312" s="3"/>
     </row>
-    <row r="313" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -12294,7 +12307,7 @@
       <c r="AI313" s="3"/>
       <c r="AJ313" s="3"/>
     </row>
-    <row r="314" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -12330,7 +12343,7 @@
       <c r="AI314" s="3"/>
       <c r="AJ314" s="3"/>
     </row>
-    <row r="315" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -12366,7 +12379,7 @@
       <c r="AI315" s="3"/>
       <c r="AJ315" s="3"/>
     </row>
-    <row r="316" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -12402,7 +12415,7 @@
       <c r="AI316" s="3"/>
       <c r="AJ316" s="3"/>
     </row>
-    <row r="317" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -12438,7 +12451,7 @@
       <c r="AI317" s="3"/>
       <c r="AJ317" s="3"/>
     </row>
-    <row r="318" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -12474,7 +12487,7 @@
       <c r="AI318" s="3"/>
       <c r="AJ318" s="3"/>
     </row>
-    <row r="319" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -12510,7 +12523,7 @@
       <c r="AI319" s="3"/>
       <c r="AJ319" s="3"/>
     </row>
-    <row r="320" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -12546,7 +12559,7 @@
       <c r="AI320" s="3"/>
       <c r="AJ320" s="3"/>
     </row>
-    <row r="321" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -12582,7 +12595,7 @@
       <c r="AI321" s="3"/>
       <c r="AJ321" s="3"/>
     </row>
-    <row r="322" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -12618,7 +12631,7 @@
       <c r="AI322" s="3"/>
       <c r="AJ322" s="3"/>
     </row>
-    <row r="323" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -12654,7 +12667,7 @@
       <c r="AI323" s="3"/>
       <c r="AJ323" s="3"/>
     </row>
-    <row r="324" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -12690,7 +12703,7 @@
       <c r="AI324" s="3"/>
       <c r="AJ324" s="3"/>
     </row>
-    <row r="325" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -12726,7 +12739,7 @@
       <c r="AI325" s="3"/>
       <c r="AJ325" s="3"/>
     </row>
-    <row r="326" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -12762,7 +12775,7 @@
       <c r="AI326" s="3"/>
       <c r="AJ326" s="3"/>
     </row>
-    <row r="327" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -12798,7 +12811,7 @@
       <c r="AI327" s="3"/>
       <c r="AJ327" s="3"/>
     </row>
-    <row r="328" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -12834,7 +12847,7 @@
       <c r="AI328" s="3"/>
       <c r="AJ328" s="3"/>
     </row>
-    <row r="329" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -12870,7 +12883,7 @@
       <c r="AI329" s="3"/>
       <c r="AJ329" s="3"/>
     </row>
-    <row r="330" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -12906,7 +12919,7 @@
       <c r="AI330" s="3"/>
       <c r="AJ330" s="3"/>
     </row>
-    <row r="331" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -12942,7 +12955,7 @@
       <c r="AI331" s="3"/>
       <c r="AJ331" s="3"/>
     </row>
-    <row r="332" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -12978,7 +12991,7 @@
       <c r="AI332" s="3"/>
       <c r="AJ332" s="3"/>
     </row>
-    <row r="333" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -13014,7 +13027,7 @@
       <c r="AI333" s="3"/>
       <c r="AJ333" s="3"/>
     </row>
-    <row r="334" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -13050,7 +13063,7 @@
       <c r="AI334" s="3"/>
       <c r="AJ334" s="3"/>
     </row>
-    <row r="335" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -13086,7 +13099,7 @@
       <c r="AI335" s="3"/>
       <c r="AJ335" s="3"/>
     </row>
-    <row r="336" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -13122,7 +13135,7 @@
       <c r="AI336" s="3"/>
       <c r="AJ336" s="3"/>
     </row>
-    <row r="337" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -13158,7 +13171,7 @@
       <c r="AI337" s="3"/>
       <c r="AJ337" s="3"/>
     </row>
-    <row r="338" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -13194,7 +13207,7 @@
       <c r="AI338" s="3"/>
       <c r="AJ338" s="3"/>
     </row>
-    <row r="339" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -13230,7 +13243,7 @@
       <c r="AI339" s="3"/>
       <c r="AJ339" s="3"/>
     </row>
-    <row r="340" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -13266,7 +13279,7 @@
       <c r="AI340" s="3"/>
       <c r="AJ340" s="3"/>
     </row>
-    <row r="341" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -13302,7 +13315,7 @@
       <c r="AI341" s="3"/>
       <c r="AJ341" s="3"/>
     </row>
-    <row r="342" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -13338,7 +13351,7 @@
       <c r="AI342" s="3"/>
       <c r="AJ342" s="3"/>
     </row>
-    <row r="343" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -13374,7 +13387,7 @@
       <c r="AI343" s="3"/>
       <c r="AJ343" s="3"/>
     </row>
-    <row r="344" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -13410,7 +13423,7 @@
       <c r="AI344" s="3"/>
       <c r="AJ344" s="3"/>
     </row>
-    <row r="345" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -13446,7 +13459,7 @@
       <c r="AI345" s="3"/>
       <c r="AJ345" s="3"/>
     </row>
-    <row r="346" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -13482,7 +13495,7 @@
       <c r="AI346" s="3"/>
       <c r="AJ346" s="3"/>
     </row>
-    <row r="347" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -13518,7 +13531,7 @@
       <c r="AI347" s="3"/>
       <c r="AJ347" s="3"/>
     </row>
-    <row r="348" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -13554,7 +13567,7 @@
       <c r="AI348" s="3"/>
       <c r="AJ348" s="3"/>
     </row>
-    <row r="349" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -13590,7 +13603,7 @@
       <c r="AI349" s="3"/>
       <c r="AJ349" s="3"/>
     </row>
-    <row r="350" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -13626,7 +13639,7 @@
       <c r="AI350" s="3"/>
       <c r="AJ350" s="3"/>
     </row>
-    <row r="351" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -13662,7 +13675,7 @@
       <c r="AI351" s="3"/>
       <c r="AJ351" s="3"/>
     </row>
-    <row r="352" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -13698,7 +13711,7 @@
       <c r="AI352" s="3"/>
       <c r="AJ352" s="3"/>
     </row>
-    <row r="353" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -13734,7 +13747,7 @@
       <c r="AI353" s="3"/>
       <c r="AJ353" s="3"/>
     </row>
-    <row r="354" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -13770,7 +13783,7 @@
       <c r="AI354" s="3"/>
       <c r="AJ354" s="3"/>
     </row>
-    <row r="355" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -13806,7 +13819,7 @@
       <c r="AI355" s="3"/>
       <c r="AJ355" s="3"/>
     </row>
-    <row r="356" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -13842,7 +13855,7 @@
       <c r="AI356" s="3"/>
       <c r="AJ356" s="3"/>
     </row>
-    <row r="357" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -13878,7 +13891,7 @@
       <c r="AI357" s="3"/>
       <c r="AJ357" s="3"/>
     </row>
-    <row r="358" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -13914,7 +13927,7 @@
       <c r="AI358" s="3"/>
       <c r="AJ358" s="3"/>
     </row>
-    <row r="359" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -13950,7 +13963,7 @@
       <c r="AI359" s="3"/>
       <c r="AJ359" s="3"/>
     </row>
-    <row r="360" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -13986,7 +13999,7 @@
       <c r="AI360" s="3"/>
       <c r="AJ360" s="3"/>
     </row>
-    <row r="361" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -14022,7 +14035,7 @@
       <c r="AI361" s="3"/>
       <c r="AJ361" s="3"/>
     </row>
-    <row r="362" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -14058,7 +14071,7 @@
       <c r="AI362" s="3"/>
       <c r="AJ362" s="3"/>
     </row>
-    <row r="363" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -14094,7 +14107,7 @@
       <c r="AI363" s="3"/>
       <c r="AJ363" s="3"/>
     </row>
-    <row r="364" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -14130,7 +14143,7 @@
       <c r="AI364" s="3"/>
       <c r="AJ364" s="3"/>
     </row>
-    <row r="365" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -14166,7 +14179,7 @@
       <c r="AI365" s="3"/>
       <c r="AJ365" s="3"/>
     </row>
-    <row r="366" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -14202,7 +14215,7 @@
       <c r="AI366" s="3"/>
       <c r="AJ366" s="3"/>
     </row>
-    <row r="367" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -14238,7 +14251,7 @@
       <c r="AI367" s="3"/>
       <c r="AJ367" s="3"/>
     </row>
-    <row r="368" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -14274,7 +14287,7 @@
       <c r="AI368" s="3"/>
       <c r="AJ368" s="3"/>
     </row>
-    <row r="369" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -14310,7 +14323,7 @@
       <c r="AI369" s="3"/>
       <c r="AJ369" s="3"/>
     </row>
-    <row r="370" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -14346,7 +14359,7 @@
       <c r="AI370" s="3"/>
       <c r="AJ370" s="3"/>
     </row>
-    <row r="371" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -14382,7 +14395,7 @@
       <c r="AI371" s="3"/>
       <c r="AJ371" s="3"/>
     </row>
-    <row r="372" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -14418,7 +14431,7 @@
       <c r="AI372" s="3"/>
       <c r="AJ372" s="3"/>
     </row>
-    <row r="373" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -14454,7 +14467,7 @@
       <c r="AI373" s="3"/>
       <c r="AJ373" s="3"/>
     </row>
-    <row r="374" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -14490,7 +14503,7 @@
       <c r="AI374" s="3"/>
       <c r="AJ374" s="3"/>
     </row>
-    <row r="375" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -14526,7 +14539,7 @@
       <c r="AI375" s="3"/>
       <c r="AJ375" s="3"/>
     </row>
-    <row r="376" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -14562,7 +14575,7 @@
       <c r="AI376" s="3"/>
       <c r="AJ376" s="3"/>
     </row>
-    <row r="377" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -14598,7 +14611,7 @@
       <c r="AI377" s="3"/>
       <c r="AJ377" s="3"/>
     </row>
-    <row r="378" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -14634,7 +14647,7 @@
       <c r="AI378" s="3"/>
       <c r="AJ378" s="3"/>
     </row>
-    <row r="379" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>

--- a/AMAT.xlsx
+++ b/AMAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1191E4-ED79-4968-ABC4-47B6A76F2C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF31B9F-0BA8-4E45-A895-D67AAACEC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{06EFFD27-1757-45B6-9E58-706779EEED5E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{06EFFD27-1757-45B6-9E58-706779EEED5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>AMAT</t>
   </si>
@@ -170,18 +170,39 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,21 +259,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -591,7 +617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A6AFE-C186-46C7-8157-10E5E2E82F5E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -612,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>179.53</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -620,10 +648,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="3">
-        <v>824.404088</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>796.642427</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -632,7 +660,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>148005.26591864001</v>
+        <v>179826.09504670999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -646,8 +674,8 @@
         <f>8288+815</f>
         <v>9103</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
+      <c r="J5" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -661,8 +689,8 @@
         <f>99+6158</f>
         <v>6257</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
+      <c r="J6" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -671,7 +699,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>145159.26591864001</v>
+        <v>176980.09504670999</v>
       </c>
     </row>
   </sheetData>
@@ -683,11 +711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0960A73-A441-4FD3-8A02-F7BA2FA0CA72}">
   <dimension ref="A1:AJ379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -728,6 +756,18 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -747,7 +787,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>5427</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -790,7 +832,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>1600</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -833,7 +877,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>263</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -876,7 +922,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>12</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -919,7 +967,9 @@
       <c r="J7" s="6"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="6">
+        <v>7302</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -962,7 +1012,9 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>3740</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1020,12 +1072,21 @@
         <v>3205</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" ref="J9" si="1">+J7-J8</f>
+        <f t="shared" ref="J9:M9" si="1">+J7-J8</f>
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>3562</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1068,7 +1129,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="10">
+        <v>901</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1111,7 +1174,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>224</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1154,7 +1219,9 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>204</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1212,13 +1279,25 @@
         <v>1942</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13" si="3">+J9-SUM(J10:J12)</f>
+        <f t="shared" ref="J13:N13" si="3">+J9-SUM(J10:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
+        <v>2233</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1260,7 +1339,9 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>66</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1303,7 +1384,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>396</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1361,13 +1444,25 @@
         <v>1960</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16" si="5">+J13-J14+J15</f>
+        <f t="shared" ref="J16:N16" si="5">+J13-J14+J15</f>
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="5"/>
+        <v>2563</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1409,7 +1504,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>784</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1467,13 +1564,25 @@
         <v>1705</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18" si="7">+J16-J17</f>
+        <f t="shared" ref="J18:N18" si="7">+J16-J17</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="7"/>
+        <v>1779</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1566,13 +1675,25 @@
         <v>2.0641646489104115</v>
       </c>
       <c r="J20" s="7" t="e">
-        <f t="shared" ref="J20" si="9">+J18/J21</f>
+        <f t="shared" ref="J20:N20" si="9">+J18/J21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="9"/>
+        <v>2.2293233082706765</v>
+      </c>
+      <c r="N20" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -1614,7 +1735,9 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>798</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1699,10 +1822,22 @@
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="8" t="e">
+        <f t="shared" ref="K23:N27" si="11">+K3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="11"/>
+        <v>0.10215272136474418</v>
+      </c>
+      <c r="N23" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1743,17 +1878,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" ref="I24:J27" si="11">+I4/E4-1</f>
+        <f t="shared" ref="I24:J27" si="12">+I4/E4-1</f>
         <v>7.9234972677595605E-2</v>
       </c>
       <c r="J24" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="11"/>
+        <v>1.2658227848101333E-2</v>
+      </c>
+      <c r="N24" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1794,17 +1941,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8085106382978822E-2</v>
       </c>
       <c r="J25" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="L25" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="11"/>
+        <v>4.7808764940239001E-2</v>
+      </c>
+      <c r="N25" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1845,17 +2004,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.54</v>
       </c>
       <c r="J26" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="L26" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.47826086956521741</v>
+      </c>
+      <c r="N26" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1880,33 +2051,45 @@
       <c r="AJ26" s="3"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="8" t="e">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="11" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="8" t="e">
+      <c r="H27" s="11" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="8">
-        <f t="shared" si="11"/>
+      <c r="I27" s="11">
+        <f t="shared" si="12"/>
         <v>5.4941634241245207E-2</v>
       </c>
-      <c r="J27" s="8" t="e">
+      <c r="J27" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="11" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="L27" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="11"/>
+        <v>7.730894069046923E-2</v>
+      </c>
+      <c r="N27" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1935,27 +2118,27 @@
         <v>41</v>
       </c>
       <c r="C28" s="8" t="e">
-        <f t="shared" ref="C28:H28" si="12">+C9/C7</f>
+        <f t="shared" ref="C28:H28" si="13">+C9/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.46319066147859922</v>
       </c>
       <c r="F28" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="8">
@@ -1966,10 +2149,22 @@
         <f>+J9/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="8" t="e">
+        <f t="shared" ref="K28:N28" si="14">+K9/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="14"/>
+        <v>0.48781155847712954</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -1998,27 +2193,27 @@
         <v>42</v>
       </c>
       <c r="C29" s="8" t="e">
-        <f t="shared" ref="C29:H29" si="13">+C13/C7</f>
+        <f t="shared" ref="C29:H29" si="15">+C13/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.28046692607003892</v>
       </c>
       <c r="F29" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="8">
@@ -2029,10 +2224,22 @@
         <f>+J13/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="8" t="e">
+        <f t="shared" ref="K29:N29" si="16">+K13/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="16"/>
+        <v>0.30580662832100797</v>
+      </c>
+      <c r="N29" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2061,27 +2268,27 @@
         <v>43</v>
       </c>
       <c r="C30" s="8" t="e">
-        <f t="shared" ref="C30:H30" si="14">+C17/C16</f>
+        <f t="shared" ref="C30:H30" si="17">+C17/C16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.13621262458471761</v>
       </c>
       <c r="F30" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="8">
@@ -2092,10 +2299,22 @@
         <f>+J17/J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="8" t="e">
+        <f t="shared" ref="K30:N30" si="18">+K17/K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="18"/>
+        <v>0.30589153335934449</v>
+      </c>
+      <c r="N30" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
